--- a/Documents/Planning.xlsx
+++ b/Documents/Planning.xlsx
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -782,7 +782,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="période_sélectionnée" max="60" min="1" page="10" val="40"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="période_sélectionnée" max="60" min="1" page="10" val="6"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:AW27"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1116,7 +1116,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="9">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="O3" s="8"/>
       <c r="Q3" s="10"/>
